--- a/nsfields.xlsx
+++ b/nsfields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38900" yWindow="8680" windowWidth="20420" windowHeight="10980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38900" yWindow="8680" windowWidth="20420" windowHeight="10980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,8 +333,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -374,7 +376,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -389,6 +391,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -403,6 +406,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1094,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1103,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
